--- a/사회.xlsx
+++ b/사회.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="285">
   <si>
     <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스터 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨텐츠관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인증서버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소프트웨어개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모바일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스마트폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이폰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시스템엔지니어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백신프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,6 +870,293 @@
   </si>
   <si>
     <t>자회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OECD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규제개혁위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부실기업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성과연봉제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달러당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비은행권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비심리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자심리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균소득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부실채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정거래위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정위원장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRB</t>
+  </si>
+  <si>
+    <t>공급과잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호무역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자금조달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가처분 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융공공기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시중은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호텔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전략 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사립대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저금리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제유가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴욕증시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F&amp;B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비성향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍선효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소배출권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1254,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="C160" workbookViewId="0">
+      <selection activeCell="C126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1276,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1290,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1304,10 +1571,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1318,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1332,10 +1599,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1346,10 +1613,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1360,10 +1627,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1374,10 +1641,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1388,10 +1655,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1402,10 +1669,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1416,10 +1683,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1430,10 +1697,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1444,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1458,32 +1725,32 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
       <c r="D16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1494,10 +1761,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1508,10 +1775,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1522,10 +1789,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1536,10 +1803,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1547,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1561,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1578,10 +1845,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1592,10 +1859,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1606,10 +1873,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1620,10 +1887,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1634,10 +1901,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1648,10 +1915,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1662,10 +1929,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1676,10 +1943,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1690,10 +1957,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1704,10 +1971,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1718,10 +1985,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1732,10 +1999,10 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1746,10 +2013,10 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1760,10 +2027,10 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1774,10 +2041,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1788,10 +2055,10 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1802,10 +2069,10 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1816,10 +2083,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1830,10 +2097,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1844,10 +2111,10 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1858,10 +2125,10 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1872,10 +2139,10 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1886,10 +2153,10 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1900,10 +2167,10 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1914,10 +2181,10 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +2195,10 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1942,10 +2209,10 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1953,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1967,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1981,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1995,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2009,13 +2276,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2026,10 +2293,10 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2040,10 +2307,10 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2054,10 +2321,10 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2068,10 +2335,10 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2082,10 +2349,10 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2096,7 +2363,7 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
         <v>210</v>
@@ -2110,10 +2377,10 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2124,10 +2391,10 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2138,10 +2405,10 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2152,10 +2419,10 @@
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2166,10 +2433,10 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2180,10 +2447,10 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2194,10 +2461,10 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2208,10 +2475,10 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2222,10 +2489,10 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2236,10 +2503,10 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2250,10 +2517,10 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2264,10 +2531,10 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2278,10 +2545,10 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2292,10 +2559,10 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2306,10 +2573,10 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2320,10 +2587,10 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2334,10 +2601,10 @@
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2348,10 +2615,10 @@
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2362,10 +2629,10 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2376,10 +2643,10 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2390,10 +2657,10 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2404,435 +2671,944 @@
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E92" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E96" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
         <v>113</v>
       </c>
-      <c r="B98" t="s">
-        <v>111</v>
-      </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E99" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
         <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E101" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
         <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" t="s">
-        <v>118</v>
-      </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E103" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" t="s">
-        <v>119</v>
-      </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E104" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>113</v>
-      </c>
-      <c r="B105" t="s">
-        <v>120</v>
-      </c>
       <c r="D105" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" t="s">
-        <v>121</v>
-      </c>
       <c r="D106" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E106" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" t="s">
-        <v>122</v>
-      </c>
       <c r="D107" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E107" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="D108" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E108" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="D109" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="D110" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E110" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="D111" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E111" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="D112" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E112" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="4:5">
       <c r="D113" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="4:5">
       <c r="D114" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="4:5">
       <c r="D115" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="4:5">
       <c r="D116" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="D118" t="s">
+        <v>81</v>
+      </c>
+      <c r="E118" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="D120" t="s">
+        <v>81</v>
+      </c>
+      <c r="E120" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5">
+      <c r="D121" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="D122" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" t="s">
         <v>170</v>
       </c>
     </row>
+    <row r="123" spans="4:5">
+      <c r="D123" t="s">
+        <v>81</v>
+      </c>
+      <c r="E123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="D124" t="s">
+        <v>81</v>
+      </c>
+      <c r="E124" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5">
+      <c r="D125" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="D126" t="s">
+        <v>81</v>
+      </c>
+      <c r="E126" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="D127" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5">
+      <c r="D128" t="s">
+        <v>81</v>
+      </c>
+      <c r="E128" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" t="s">
+        <v>81</v>
+      </c>
+      <c r="E129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130" t="s">
+        <v>81</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131" t="s">
+        <v>81</v>
+      </c>
+      <c r="E131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132" t="s">
+        <v>81</v>
+      </c>
+      <c r="E132" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133" t="s">
+        <v>81</v>
+      </c>
+      <c r="E133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E134" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135" t="s">
+        <v>81</v>
+      </c>
+      <c r="E135" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136" t="s">
+        <v>81</v>
+      </c>
+      <c r="E136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" t="s">
+        <v>81</v>
+      </c>
+      <c r="E137" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138" t="s">
+        <v>81</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140" t="s">
+        <v>81</v>
+      </c>
+      <c r="E140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141" t="s">
+        <v>81</v>
+      </c>
+      <c r="E141" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="D142" t="s">
+        <v>81</v>
+      </c>
+      <c r="E142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143" t="s">
+        <v>81</v>
+      </c>
+      <c r="E143" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144" t="s">
+        <v>81</v>
+      </c>
+      <c r="E144" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145" t="s">
+        <v>81</v>
+      </c>
+      <c r="E145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147" t="s">
+        <v>81</v>
+      </c>
+      <c r="E147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148" t="s">
+        <v>81</v>
+      </c>
+      <c r="E148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149" t="s">
+        <v>81</v>
+      </c>
+      <c r="E149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150" t="s">
+        <v>81</v>
+      </c>
+      <c r="E150" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151" t="s">
+        <v>81</v>
+      </c>
+      <c r="E151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="D152" t="s">
+        <v>81</v>
+      </c>
+      <c r="E152" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153" t="s">
+        <v>81</v>
+      </c>
+      <c r="E153" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154" t="s">
+        <v>81</v>
+      </c>
+      <c r="E154" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="D155" t="s">
+        <v>81</v>
+      </c>
+      <c r="E155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156" t="s">
+        <v>81</v>
+      </c>
+      <c r="E156" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157" t="s">
+        <v>81</v>
+      </c>
+      <c r="E157" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158" t="s">
+        <v>81</v>
+      </c>
+      <c r="E158" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159" t="s">
+        <v>81</v>
+      </c>
+      <c r="E159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160" t="s">
+        <v>81</v>
+      </c>
+      <c r="E160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" t="s">
+        <v>81</v>
+      </c>
+      <c r="E161" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5">
+      <c r="D162" t="s">
+        <v>81</v>
+      </c>
+      <c r="E162" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" t="s">
+        <v>81</v>
+      </c>
+      <c r="E163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164" t="s">
+        <v>81</v>
+      </c>
+      <c r="E164" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165" t="s">
+        <v>81</v>
+      </c>
+      <c r="E165" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166" t="s">
+        <v>81</v>
+      </c>
+      <c r="E166" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167" t="s">
+        <v>81</v>
+      </c>
+      <c r="E167" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="D168" t="s">
+        <v>81</v>
+      </c>
+      <c r="E168" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169" t="s">
+        <v>81</v>
+      </c>
+      <c r="E169" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="D170" t="s">
+        <v>81</v>
+      </c>
+      <c r="E170" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171" t="s">
+        <v>81</v>
+      </c>
+      <c r="E171" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="D172" t="s">
+        <v>81</v>
+      </c>
+      <c r="E172" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="D173" t="s">
+        <v>81</v>
+      </c>
+      <c r="E173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="D174" t="s">
+        <v>81</v>
+      </c>
+      <c r="E174" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5">
+      <c r="D175" t="s">
+        <v>81</v>
+      </c>
+      <c r="E175" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5">
+      <c r="D176" t="s">
+        <v>81</v>
+      </c>
+      <c r="E176" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="D177" t="s">
+        <v>81</v>
+      </c>
+      <c r="E177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="D178" t="s">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179" t="s">
+        <v>81</v>
+      </c>
+      <c r="E179" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5">
+      <c r="D180" t="s">
+        <v>81</v>
+      </c>
+      <c r="E180" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="D181" t="s">
+        <v>81</v>
+      </c>
+      <c r="E181" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="D182" t="s">
+        <v>81</v>
+      </c>
+      <c r="E182" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183" t="s">
+        <v>81</v>
+      </c>
+      <c r="E183" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="E1:E190">
+    <sortCondition ref="E111"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/사회.xlsx
+++ b/사회.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어플리케이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,6 +1153,278 @@
   </si>
   <si>
     <t>탄소배출권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자물가지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산자물가지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출입물가지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDP디플레이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객관계관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주가연계증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장지수펀드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장지수채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유럽연합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연방공개시장위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연방준비제도이사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유무역협정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내총생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민총소득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민총생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내총소득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제통화기금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인종합자산관리계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국개발연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수합병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머니마켓펀드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모건스탠리캐피널인터내셔널지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증권거래소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제협력개발기구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석유수출국기구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석유파동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석유산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오일달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외한은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨티은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBK하나은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협중앙회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDB산업은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출입은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공임대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위안화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달러화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전셋값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대주택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주거종합계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공매도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연금계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개성공단기업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광공업생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광공업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1513,7 +1781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1521,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C160" workbookViewId="0">
-      <selection activeCell="C126" sqref="A126:XFD126"/>
+    <sheetView tabSelected="1" topLeftCell="C222" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1532,6 +1800,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1543,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1557,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1571,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1585,10 +1854,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1599,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1613,10 +1882,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1627,10 +1896,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1641,10 +1910,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1655,10 +1924,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1669,10 +1938,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1683,10 +1952,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1697,10 +1966,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1711,10 +1980,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1725,18 +1994,18 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1747,10 +2016,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1761,10 +2030,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1775,10 +2044,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1789,10 +2058,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1803,10 +2072,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1817,10 +2086,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1831,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>251</v>
@@ -1845,10 +2114,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1859,10 +2128,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1873,10 +2142,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1887,10 +2156,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1901,10 +2170,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1915,10 +2184,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1929,10 +2198,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1943,10 +2212,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1957,10 +2226,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1971,10 +2240,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1985,10 +2254,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1999,10 +2268,10 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2013,10 +2282,10 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2027,10 +2296,10 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2041,10 +2310,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2055,10 +2324,10 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2069,10 +2338,10 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2083,10 +2352,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2097,10 +2366,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2111,10 +2380,10 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2125,10 +2394,10 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2139,10 +2408,10 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2153,10 +2422,10 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2167,10 +2436,10 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2181,10 +2450,10 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2195,10 +2464,10 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2206,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2220,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2237,10 +2506,10 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2251,10 +2520,10 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2265,10 +2534,10 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2279,10 +2548,10 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2293,10 +2562,10 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2307,10 +2576,10 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2321,10 +2590,10 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2335,10 +2604,10 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2349,10 +2618,10 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2363,10 +2632,10 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2377,10 +2646,10 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2391,10 +2660,10 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2405,10 +2674,10 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2419,10 +2688,10 @@
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2433,10 +2702,10 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2447,10 +2716,10 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2461,10 +2730,10 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2475,10 +2744,10 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2489,10 +2758,10 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2503,10 +2772,10 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2517,10 +2786,10 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2531,10 +2800,10 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2545,10 +2814,10 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2559,10 +2828,10 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2573,10 +2842,10 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2587,10 +2856,10 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2601,10 +2870,10 @@
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2615,10 +2884,10 @@
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2629,10 +2898,10 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2643,10 +2912,10 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2657,957 +2926,1487 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
         <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
         <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
         <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E87" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
         <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
         <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E91" t="s">
-        <v>154</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E94" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
         <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E98" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
         <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E99" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
         <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" t="s">
-        <v>117</v>
-      </c>
       <c r="D102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="D103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="D104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E104" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="D105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="D106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="D107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="D108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="D109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="D110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="D111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E111" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="D112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="4:5">
       <c r="D113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="4:5">
       <c r="D114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="4:5">
       <c r="D115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E115" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="4:5">
       <c r="D116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E116" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="4:5">
       <c r="D117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E117" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="4:5">
       <c r="D118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E118" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="4:5">
       <c r="D119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E119" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="D120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E120" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="4:5">
       <c r="D121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="4:5">
       <c r="D122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E122" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="4:5">
       <c r="D123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="4:5">
       <c r="D124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E124" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="4:5">
       <c r="D125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E125" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="4:5">
       <c r="D126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="4:5">
       <c r="D127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E127" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="4:5">
       <c r="D128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="4:5">
       <c r="D129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E129" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="4:5">
       <c r="D130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="4:5">
       <c r="D131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E131" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="4:5">
       <c r="D132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E132" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="4:5">
       <c r="D133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="4:5">
       <c r="D134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E134" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="4:5">
       <c r="D135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E135" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="4:5">
       <c r="D136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E136" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="4:5">
       <c r="D137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E137" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="4:5">
       <c r="D138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E138" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="4:5">
       <c r="D139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E139" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="4:5">
       <c r="D140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E140" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="4:5">
       <c r="D141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E141" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="4:5">
       <c r="D142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="4:5">
       <c r="D143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="4:5">
       <c r="D144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E144" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="4:5">
       <c r="D145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E145" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="4:5">
       <c r="D146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E146" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="4:5">
       <c r="D147" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E147" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="4:5">
       <c r="D148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E148" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="4:5">
       <c r="D149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E149" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
     </row>
     <row r="150" spans="4:5">
       <c r="D150" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E150" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="4:5">
       <c r="D151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E151" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="4:5">
       <c r="D152" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E152" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="4:5">
       <c r="D153" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E153" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="4:5">
       <c r="D154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155" spans="4:5">
       <c r="D155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E155" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="4:5">
       <c r="D156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E156" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="4:5">
       <c r="D157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E157" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="4:5">
       <c r="D158" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E158" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="4:5">
       <c r="D159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E159" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="4:5">
       <c r="D160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E160" t="s">
-        <v>193</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="4:5">
       <c r="D161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E161" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="4:5">
       <c r="D162" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E162" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="4:5">
       <c r="D163" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E163" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="4:5">
       <c r="D164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E164" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="4:5">
       <c r="D165" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E165" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="4:5">
       <c r="D166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E166" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="4:5">
       <c r="D167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E167" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="4:5">
       <c r="D168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E168" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="4:5">
       <c r="D169" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E169" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" spans="4:5">
       <c r="D170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E170" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="4:5">
       <c r="D171" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E171" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="4:5">
       <c r="D172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E172" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="4:5">
       <c r="D173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E173" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="4:5">
       <c r="D174" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E174" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="4:5">
       <c r="D175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E175" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="4:5">
       <c r="D176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E176" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="177" spans="4:5">
       <c r="D177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E177" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="4:5">
       <c r="D178" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E178" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" spans="4:5">
       <c r="D179" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E179" t="s">
-        <v>90</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="4:5">
       <c r="D180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E180" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="4:5">
       <c r="D181" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E181" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="4:5">
       <c r="D182" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E182" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" spans="4:5">
       <c r="D183" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E183" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5">
+      <c r="D184" t="s">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185" t="s">
+        <v>80</v>
+      </c>
+      <c r="E185" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186" t="s">
+        <v>80</v>
+      </c>
+      <c r="E186" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187" t="s">
+        <v>80</v>
+      </c>
+      <c r="E187" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188" t="s">
+        <v>80</v>
+      </c>
+      <c r="E188" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5">
+      <c r="D189" t="s">
+        <v>80</v>
+      </c>
+      <c r="E189" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5">
+      <c r="D190" t="s">
+        <v>80</v>
+      </c>
+      <c r="E190" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5">
+      <c r="D191" t="s">
+        <v>80</v>
+      </c>
+      <c r="E191" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5">
+      <c r="D192" t="s">
+        <v>80</v>
+      </c>
+      <c r="E192" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5">
+      <c r="D193" t="s">
+        <v>80</v>
+      </c>
+      <c r="E193" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5">
+      <c r="D194" t="s">
+        <v>80</v>
+      </c>
+      <c r="E194" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5">
+      <c r="D195" t="s">
+        <v>80</v>
+      </c>
+      <c r="E195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5">
+      <c r="D196" t="s">
+        <v>80</v>
+      </c>
+      <c r="E196" t="s">
         <v>179</v>
       </c>
     </row>
+    <row r="197" spans="4:5">
+      <c r="D197" t="s">
+        <v>80</v>
+      </c>
+      <c r="E197" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5">
+      <c r="D198" t="s">
+        <v>80</v>
+      </c>
+      <c r="E198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5">
+      <c r="D199" t="s">
+        <v>80</v>
+      </c>
+      <c r="E199" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5">
+      <c r="D200" t="s">
+        <v>80</v>
+      </c>
+      <c r="E200" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5">
+      <c r="D201" t="s">
+        <v>80</v>
+      </c>
+      <c r="E201" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5">
+      <c r="D202" t="s">
+        <v>80</v>
+      </c>
+      <c r="E202" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5">
+      <c r="D203" t="s">
+        <v>80</v>
+      </c>
+      <c r="E203" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5">
+      <c r="D204" t="s">
+        <v>80</v>
+      </c>
+      <c r="E204" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5">
+      <c r="D205" t="s">
+        <v>80</v>
+      </c>
+      <c r="E205" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5">
+      <c r="D206" t="s">
+        <v>80</v>
+      </c>
+      <c r="E206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5">
+      <c r="D207" t="s">
+        <v>80</v>
+      </c>
+      <c r="E207" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5">
+      <c r="D208" t="s">
+        <v>80</v>
+      </c>
+      <c r="E208" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5">
+      <c r="D209" t="s">
+        <v>80</v>
+      </c>
+      <c r="E209" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5">
+      <c r="D210" t="s">
+        <v>80</v>
+      </c>
+      <c r="E210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5">
+      <c r="D211" t="s">
+        <v>80</v>
+      </c>
+      <c r="E211" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5">
+      <c r="D212" t="s">
+        <v>80</v>
+      </c>
+      <c r="E212" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5">
+      <c r="D213" t="s">
+        <v>80</v>
+      </c>
+      <c r="E213" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5">
+      <c r="D214" t="s">
+        <v>80</v>
+      </c>
+      <c r="E214" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5">
+      <c r="D215" t="s">
+        <v>80</v>
+      </c>
+      <c r="E215" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5">
+      <c r="D216" t="s">
+        <v>80</v>
+      </c>
+      <c r="E216" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5">
+      <c r="D217" t="s">
+        <v>80</v>
+      </c>
+      <c r="E217" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5">
+      <c r="D218" t="s">
+        <v>80</v>
+      </c>
+      <c r="E218" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5">
+      <c r="D219" t="s">
+        <v>80</v>
+      </c>
+      <c r="E219" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5">
+      <c r="D220" t="s">
+        <v>80</v>
+      </c>
+      <c r="E220" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="4:5">
+      <c r="D221" t="s">
+        <v>80</v>
+      </c>
+      <c r="E221" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5">
+      <c r="D222" t="s">
+        <v>80</v>
+      </c>
+      <c r="E222" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="223" spans="4:5">
+      <c r="D223" t="s">
+        <v>80</v>
+      </c>
+      <c r="E223" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="4:5">
+      <c r="D224" t="s">
+        <v>80</v>
+      </c>
+      <c r="E224" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225" spans="4:5">
+      <c r="D225" t="s">
+        <v>80</v>
+      </c>
+      <c r="E225" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="226" spans="4:5">
+      <c r="D226" t="s">
+        <v>80</v>
+      </c>
+      <c r="E226" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5">
+      <c r="D227" t="s">
+        <v>80</v>
+      </c>
+      <c r="E227" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="228" spans="4:5">
+      <c r="D228" t="s">
+        <v>80</v>
+      </c>
+      <c r="E228" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="229" spans="4:5">
+      <c r="D229" t="s">
+        <v>80</v>
+      </c>
+      <c r="E229" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="230" spans="4:5">
+      <c r="D230" t="s">
+        <v>80</v>
+      </c>
+      <c r="E230" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="231" spans="4:5">
+      <c r="D231" t="s">
+        <v>80</v>
+      </c>
+      <c r="E231" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232" spans="4:5">
+      <c r="D232" t="s">
+        <v>80</v>
+      </c>
+      <c r="E232" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5">
+      <c r="D233" t="s">
+        <v>80</v>
+      </c>
+      <c r="E233" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="234" spans="4:5">
+      <c r="D234" t="s">
+        <v>80</v>
+      </c>
+      <c r="E234" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="235" spans="4:5">
+      <c r="D235" t="s">
+        <v>80</v>
+      </c>
+      <c r="E235" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="236" spans="4:5">
+      <c r="D236" t="s">
+        <v>80</v>
+      </c>
+      <c r="E236" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5">
+      <c r="D237" t="s">
+        <v>80</v>
+      </c>
+      <c r="E237" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="238" spans="4:5">
+      <c r="D238" t="s">
+        <v>80</v>
+      </c>
+      <c r="E238" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5">
+      <c r="D239" t="s">
+        <v>80</v>
+      </c>
+      <c r="E239" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5">
+      <c r="D240" t="s">
+        <v>80</v>
+      </c>
+      <c r="E240" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5">
+      <c r="D241" t="s">
+        <v>80</v>
+      </c>
+      <c r="E241" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5">
+      <c r="D242" t="s">
+        <v>80</v>
+      </c>
+      <c r="E242" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5">
+      <c r="D243" t="s">
+        <v>80</v>
+      </c>
+      <c r="E243" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5">
+      <c r="D244" t="s">
+        <v>80</v>
+      </c>
+      <c r="E244" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="245" spans="4:5">
+      <c r="D245" t="s">
+        <v>80</v>
+      </c>
+      <c r="E245" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="246" spans="4:5">
+      <c r="D246" t="s">
+        <v>80</v>
+      </c>
+      <c r="E246" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="247" spans="4:5">
+      <c r="D247" t="s">
+        <v>80</v>
+      </c>
+      <c r="E247" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="248" spans="4:5">
+      <c r="D248" t="s">
+        <v>80</v>
+      </c>
+      <c r="E248" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="249" spans="4:5">
+      <c r="D249" t="s">
+        <v>80</v>
+      </c>
+      <c r="E249" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="250" spans="4:5">
+      <c r="D250" t="s">
+        <v>80</v>
+      </c>
+      <c r="E250" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="E1:E190">
-    <sortCondition ref="E111"/>
+  <sortState ref="D1:E238">
+    <sortCondition ref="E199"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/사회.xlsx
+++ b/사회.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="443">
   <si>
     <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,6 +1425,370 @@
   </si>
   <si>
     <t>증세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환청구서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대차거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장세분화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업이익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과세표준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보보호법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합소득세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도소득세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가절하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기예금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직연금제도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금자동입출금기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동금융거래단말기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전경쟁시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병역특례제도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감가상각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저당권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인적자원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본원통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선도거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디플레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채무보증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가처분소득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈새시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파급효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연실업률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피구효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명목금리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격경쟁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격결정회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격신축성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격표시제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격할인제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가결산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구소비실태조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가산세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가압류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가처분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간접세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감리위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인소득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거시적 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거시경제지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산시세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제개금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기동향지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기실사지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기정책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개시장운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공자금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교역조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1781,7 +2145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1789,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C222" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" topLeftCell="C323" workbookViewId="0">
+      <selection activeCell="G329" sqref="G329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4404,6 +4768,734 @@
         <v>351</v>
       </c>
     </row>
+    <row r="251" spans="4:5">
+      <c r="D251" t="s">
+        <v>80</v>
+      </c>
+      <c r="E251" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="252" spans="4:5">
+      <c r="D252" t="s">
+        <v>80</v>
+      </c>
+      <c r="E252" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="253" spans="4:5">
+      <c r="D253" t="s">
+        <v>80</v>
+      </c>
+      <c r="E253" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="254" spans="4:5">
+      <c r="D254" t="s">
+        <v>80</v>
+      </c>
+      <c r="E254" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="255" spans="4:5">
+      <c r="D255" t="s">
+        <v>80</v>
+      </c>
+      <c r="E255" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="256" spans="4:5">
+      <c r="D256" t="s">
+        <v>80</v>
+      </c>
+      <c r="E256" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="257" spans="4:5">
+      <c r="D257" t="s">
+        <v>80</v>
+      </c>
+      <c r="E257" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="258" spans="4:5">
+      <c r="D258" t="s">
+        <v>80</v>
+      </c>
+      <c r="E258" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="259" spans="4:5">
+      <c r="D259" t="s">
+        <v>80</v>
+      </c>
+      <c r="E259" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5">
+      <c r="D260" t="s">
+        <v>80</v>
+      </c>
+      <c r="E260" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5">
+      <c r="D261" t="s">
+        <v>80</v>
+      </c>
+      <c r="E261" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="262" spans="4:5">
+      <c r="D262" t="s">
+        <v>80</v>
+      </c>
+      <c r="E262" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="263" spans="4:5">
+      <c r="D263" t="s">
+        <v>80</v>
+      </c>
+      <c r="E263" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5">
+      <c r="D264" t="s">
+        <v>80</v>
+      </c>
+      <c r="E264" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="265" spans="4:5">
+      <c r="D265" t="s">
+        <v>80</v>
+      </c>
+      <c r="E265" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="266" spans="4:5">
+      <c r="D266" t="s">
+        <v>80</v>
+      </c>
+      <c r="E266" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="267" spans="4:5">
+      <c r="D267" t="s">
+        <v>80</v>
+      </c>
+      <c r="E267" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="268" spans="4:5">
+      <c r="D268" t="s">
+        <v>80</v>
+      </c>
+      <c r="E268" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="269" spans="4:5">
+      <c r="D269" t="s">
+        <v>80</v>
+      </c>
+      <c r="E269" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="270" spans="4:5">
+      <c r="D270" t="s">
+        <v>80</v>
+      </c>
+      <c r="E270" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="271" spans="4:5">
+      <c r="D271" t="s">
+        <v>80</v>
+      </c>
+      <c r="E271" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="272" spans="4:5">
+      <c r="D272" t="s">
+        <v>80</v>
+      </c>
+      <c r="E272" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5">
+      <c r="D273" t="s">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="274" spans="4:5">
+      <c r="D274" t="s">
+        <v>80</v>
+      </c>
+      <c r="E274" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="275" spans="4:5">
+      <c r="D275" t="s">
+        <v>80</v>
+      </c>
+      <c r="E275" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="276" spans="4:5">
+      <c r="D276" t="s">
+        <v>80</v>
+      </c>
+      <c r="E276" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="277" spans="4:5">
+      <c r="D277" t="s">
+        <v>80</v>
+      </c>
+      <c r="E277" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="278" spans="4:5">
+      <c r="D278" t="s">
+        <v>80</v>
+      </c>
+      <c r="E278" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="279" spans="4:5">
+      <c r="D279" t="s">
+        <v>80</v>
+      </c>
+      <c r="E279" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="280" spans="4:5">
+      <c r="D280" t="s">
+        <v>80</v>
+      </c>
+      <c r="E280" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="281" spans="4:5">
+      <c r="D281" t="s">
+        <v>80</v>
+      </c>
+      <c r="E281" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="282" spans="4:5">
+      <c r="D282" t="s">
+        <v>80</v>
+      </c>
+      <c r="E282" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="283" spans="4:5">
+      <c r="D283" t="s">
+        <v>80</v>
+      </c>
+      <c r="E283" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="284" spans="4:5">
+      <c r="D284" t="s">
+        <v>80</v>
+      </c>
+      <c r="E284" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="285" spans="4:5">
+      <c r="D285" t="s">
+        <v>80</v>
+      </c>
+      <c r="E285" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="286" spans="4:5">
+      <c r="D286" t="s">
+        <v>80</v>
+      </c>
+      <c r="E286" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="287" spans="4:5">
+      <c r="D287" t="s">
+        <v>80</v>
+      </c>
+      <c r="E287" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="288" spans="4:5">
+      <c r="D288" t="s">
+        <v>80</v>
+      </c>
+      <c r="E288" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="289" spans="4:5">
+      <c r="D289" t="s">
+        <v>80</v>
+      </c>
+      <c r="E289" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="290" spans="4:5">
+      <c r="D290" t="s">
+        <v>80</v>
+      </c>
+      <c r="E290" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="291" spans="4:5">
+      <c r="D291" t="s">
+        <v>80</v>
+      </c>
+      <c r="E291" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="292" spans="4:5">
+      <c r="D292" t="s">
+        <v>80</v>
+      </c>
+      <c r="E292" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="293" spans="4:5">
+      <c r="D293" t="s">
+        <v>80</v>
+      </c>
+      <c r="E293" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="294" spans="4:5">
+      <c r="D294" t="s">
+        <v>80</v>
+      </c>
+      <c r="E294" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="295" spans="4:5">
+      <c r="D295" t="s">
+        <v>80</v>
+      </c>
+      <c r="E295" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="296" spans="4:5">
+      <c r="D296" t="s">
+        <v>80</v>
+      </c>
+      <c r="E296" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="297" spans="4:5">
+      <c r="D297" t="s">
+        <v>80</v>
+      </c>
+      <c r="E297" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="298" spans="4:5">
+      <c r="D298" t="s">
+        <v>80</v>
+      </c>
+      <c r="E298" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="299" spans="4:5">
+      <c r="D299" t="s">
+        <v>80</v>
+      </c>
+      <c r="E299" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="300" spans="4:5">
+      <c r="D300" t="s">
+        <v>80</v>
+      </c>
+      <c r="E300" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="301" spans="4:5">
+      <c r="D301" t="s">
+        <v>80</v>
+      </c>
+      <c r="E301" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="302" spans="4:5">
+      <c r="D302" t="s">
+        <v>80</v>
+      </c>
+      <c r="E302" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="303" spans="4:5">
+      <c r="D303" t="s">
+        <v>80</v>
+      </c>
+      <c r="E303" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="304" spans="4:5">
+      <c r="D304" t="s">
+        <v>80</v>
+      </c>
+      <c r="E304" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="305" spans="4:5">
+      <c r="D305" t="s">
+        <v>80</v>
+      </c>
+      <c r="E305" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="306" spans="4:5">
+      <c r="D306" t="s">
+        <v>80</v>
+      </c>
+      <c r="E306" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5">
+      <c r="D307" t="s">
+        <v>80</v>
+      </c>
+      <c r="E307" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="308" spans="4:5">
+      <c r="D308" t="s">
+        <v>80</v>
+      </c>
+      <c r="E308" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="309" spans="4:5">
+      <c r="D309" t="s">
+        <v>80</v>
+      </c>
+      <c r="E309" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="310" spans="4:5">
+      <c r="D310" t="s">
+        <v>80</v>
+      </c>
+      <c r="E310" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="311" spans="4:5">
+      <c r="D311" t="s">
+        <v>80</v>
+      </c>
+      <c r="E311" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="312" spans="4:5">
+      <c r="D312" t="s">
+        <v>80</v>
+      </c>
+      <c r="E312" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="313" spans="4:5">
+      <c r="D313" t="s">
+        <v>80</v>
+      </c>
+      <c r="E313" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5">
+      <c r="D314" t="s">
+        <v>80</v>
+      </c>
+      <c r="E314" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="315" spans="4:5">
+      <c r="D315" t="s">
+        <v>80</v>
+      </c>
+      <c r="E315" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="316" spans="4:5">
+      <c r="D316" t="s">
+        <v>80</v>
+      </c>
+      <c r="E316" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="317" spans="4:5">
+      <c r="D317" t="s">
+        <v>80</v>
+      </c>
+      <c r="E317" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="318" spans="4:5">
+      <c r="D318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E318" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="319" spans="4:5">
+      <c r="D319" t="s">
+        <v>80</v>
+      </c>
+      <c r="E319" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="320" spans="4:5">
+      <c r="D320" t="s">
+        <v>80</v>
+      </c>
+      <c r="E320" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="321" spans="4:5">
+      <c r="D321" t="s">
+        <v>80</v>
+      </c>
+      <c r="E321" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="322" spans="4:5">
+      <c r="D322" t="s">
+        <v>80</v>
+      </c>
+      <c r="E322" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="323" spans="4:5">
+      <c r="D323" t="s">
+        <v>80</v>
+      </c>
+      <c r="E323" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="324" spans="4:5">
+      <c r="D324" t="s">
+        <v>80</v>
+      </c>
+      <c r="E324" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="325" spans="4:5">
+      <c r="D325" t="s">
+        <v>80</v>
+      </c>
+      <c r="E325" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="326" spans="4:5">
+      <c r="D326" t="s">
+        <v>80</v>
+      </c>
+      <c r="E326" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="327" spans="4:5">
+      <c r="D327" t="s">
+        <v>80</v>
+      </c>
+      <c r="E327" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="328" spans="4:5">
+      <c r="D328" t="s">
+        <v>80</v>
+      </c>
+      <c r="E328" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="329" spans="4:5">
+      <c r="D329" t="s">
+        <v>80</v>
+      </c>
+      <c r="E329" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="330" spans="4:5">
+      <c r="D330" t="s">
+        <v>80</v>
+      </c>
+      <c r="E330" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="331" spans="4:5">
+      <c r="D331" t="s">
+        <v>80</v>
+      </c>
+      <c r="E331" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="332" spans="4:5">
+      <c r="D332" t="s">
+        <v>80</v>
+      </c>
+      <c r="E332" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="333" spans="4:5">
+      <c r="D333" t="s">
+        <v>80</v>
+      </c>
+      <c r="E333" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="334" spans="4:5">
+      <c r="D334" t="s">
+        <v>80</v>
+      </c>
+      <c r="E334" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="335" spans="4:5">
+      <c r="D335" t="s">
+        <v>80</v>
+      </c>
+      <c r="E335" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="336" spans="4:5">
+      <c r="D336" t="s">
+        <v>80</v>
+      </c>
+      <c r="E336" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="337" spans="4:5">
+      <c r="D337" t="s">
+        <v>80</v>
+      </c>
+      <c r="E337" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="338" spans="4:5">
+      <c r="D338" t="s">
+        <v>80</v>
+      </c>
+      <c r="E338" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="339" spans="4:5">
+      <c r="D339" t="s">
+        <v>80</v>
+      </c>
+      <c r="E339" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="340" spans="4:5">
+      <c r="D340" t="s">
+        <v>80</v>
+      </c>
+      <c r="E340" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="341" spans="4:5">
+      <c r="D341" t="s">
+        <v>80</v>
+      </c>
+      <c r="E341" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="D1:E238">
     <sortCondition ref="E199"/>
